--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.20226405071</v>
+        <v>1330.329728494958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.45708007136354</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.31832677460855</v>
+        <v>11.34615423506322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.933510753948699</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1384.250000000006</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>436.8800000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63858450874014</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.94108823397055</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1026,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1040,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1054,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1068,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1082,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1096,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1110,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1124,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1138,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1155,12 +1144,68 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1263,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>231.4349999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1274,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>244.1349999999998</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1285,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>259.2849999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>250.3099999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>257.9799999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1318,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>190.3400000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1329,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>185.7050000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1340,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>187.9850000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1351,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>193.7800000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1362,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>191.1700000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1373,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1384,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1395,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1428,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1439,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1450,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1461,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1472,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1483,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.2599999999991</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>168.0049999999991</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1505,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>183.4449999999991</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1516,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1527,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>182.1299999999991</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>231.4349999999998</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1549,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>244.1349999999998</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1560,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>259.2849999999998</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1571,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>250.3099999999998</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>257.9799999999998</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1593,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>190.3400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1604,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>185.7050000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1615,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>187.9850000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1626,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.7800000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>191.1700000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>81.4349999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -1695,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>94.13499999999979</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -1706,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>109.2849999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1717,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>100.3099999999998</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -1728,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.9799999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -1739,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1750,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>35.70500000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1761,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>37.98500000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1772,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>43.7800000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1783,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>41.17000000000081</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1841,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1852,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1863,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1874,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1896,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1907,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1962,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1973,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1984,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1995,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2006,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2028,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2039,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2050,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2061,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2072,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2083,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2094,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2146,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2157,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2168,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2179,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2190,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2201,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2212,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2223,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2234,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
